--- a/data/case1/2/V2_3.xlsx
+++ b/data/case1/2/V2_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999043304011</v>
+        <v>0.99999998602528151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99414057466276406</v>
+        <v>0.99485489673242589</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97266354272290245</v>
+        <v>0.97558546551599234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96269044806727433</v>
+        <v>0.96723191362921768</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95312078002644052</v>
+        <v>0.95933820489874833</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.9304318930059019</v>
+        <v>0.94299882588221073</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93051792676525291</v>
+        <v>0.94056228047185853</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.92885551952897294</v>
+        <v>0.93587699582701867</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.93122556120048716</v>
+        <v>0.93264035360537512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.93456805488307904</v>
+        <v>0.93032657260564799</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.93501414083294943</v>
+        <v>0.9299364599246096</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.93634326005763668</v>
+        <v>0.92945037661783392</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.94556434309294612</v>
+        <v>0.93064618731580473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.95084834065019441</v>
+        <v>0.92935214111635367</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.94825734115911597</v>
+        <v>0.92953417223145052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.9457511755547402</v>
+        <v>0.93035873870604313</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.94204359406802451</v>
+        <v>0.92665110552359153</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.94093471507936111</v>
+        <v>0.92554223771288768</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99056372058387843</v>
+        <v>0.99225846342176727</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.9834467564745335</v>
+        <v>0.98514167717851497</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98204829226527257</v>
+        <v>0.98374323589508306</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98078378963929624</v>
+        <v>0.98247873155176513</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.9656279667693739</v>
+        <v>0.96855019440803736</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95260628302655292</v>
+        <v>0.95552880484406699</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94614916257357073</v>
+        <v>0.94907174621475554</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.926775237254303</v>
+        <v>0.94038790680273943</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.92192712304061708</v>
+        <v>0.93699771604779136</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.90044914841375467</v>
+        <v>0.92173059547509306</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.88517604482723766</v>
+        <v>0.91107691704131022</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.87860534379852384</v>
+        <v>0.90701412110978019</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.87095145802397755</v>
+        <v>0.90509950836576736</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.86927216968524279</v>
+        <v>0.90342029631497756</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.86875217429725515</v>
+        <v>0.90290030928171938</v>
       </c>
     </row>
   </sheetData>
